--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2646389.172484753</v>
+        <v>2644137.092773546</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103655</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.7363964403894</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>94.41743113184214</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>72.24046483636354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>37.84125266805007</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>16.61609021059902</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>99.84759100840616</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>134.3501500932813</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>37.56131489962198</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>191.0375394480913</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223806</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4774956074570627</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520995</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>143.4157347120537</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>145.0891016767081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>106.9977768135395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>4.444394634329256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>156.3923706291104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>145.7379152067523</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>95.21019414968376</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465746</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>35.03063761899552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>21.69718571885219</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,7 +3430,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>39.38542099944546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.4684961233931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>201.7038532276751</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.20606459030872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1941.938622099438</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4395,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>1067.25816976153</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.25816976153</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.2880032601528</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2085.807325826217</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1716.844808885805</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1358.579110279055</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>972.7908576808106</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>561.8049528912031</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>146.7325027361996</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2407.960111945097</v>
       </c>
       <c r="X5" t="n">
-        <v>2862.546497866151</v>
+        <v>2034.494353684017</v>
       </c>
       <c r="Y5" t="n">
-        <v>2472.407165890339</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
@@ -4647,49 +4647,49 @@
         <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>816.0752021691753</v>
+        <v>651.920382101508</v>
       </c>
       <c r="C7" t="n">
-        <v>647.1390192412684</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="D7" t="n">
-        <v>497.0223798289327</v>
+        <v>482.9841991736012</v>
       </c>
       <c r="E7" t="n">
-        <v>349.1092862465396</v>
+        <v>335.071105591208</v>
       </c>
       <c r="F7" t="n">
-        <v>202.2193387486292</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>202.2193387486292</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1446.505797040963</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.516246142945</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y7" t="n">
-        <v>997.7236669994151</v>
+        <v>651.920382101508</v>
       </c>
     </row>
     <row r="8">
@@ -4787,10 +4787,10 @@
         <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2717.866206673495</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2717.866206673495</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2717.866206673495</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,22 +4899,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1582.779602640134</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1293.362432603173</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1100.395221039445</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.6026418959145</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820877</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400664</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703062</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1319.459739407057</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273909</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5759,43 +5759,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.444616615148</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>792.5084336872411</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>642.3917942749054</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>494.4787006925122</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>347.5887531946018</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>180.3926539094818</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.885660588918</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>1143.093081445388</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111716</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>546.5917956728314</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>398.6787020904383</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>251.7887545925279</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1097.964082041489</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>929.0278991135822</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>778.9112597012464</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1500.405126015259</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1279.612546871729</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1051.96493935487</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C31" t="n">
-        <v>883.0287564269629</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D31" t="n">
-        <v>732.9121170146271</v>
+        <v>697.527634571203</v>
       </c>
       <c r="E31" t="n">
-        <v>584.999023432234</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>438.1090759343236</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>270.9129766492036</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>129.2011454914017</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.7575184984</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.96493935487</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1337.934786622704</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770323</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491255</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.7540666811332</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8178837532263</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2407.179830045467</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.324995700372</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2004.723530723313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.648304067511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1460.963815861624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1171.546645824663</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>1171.546645824663</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.7540666811332</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232836</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.22181769372</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1954.146591037918</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1699.462102832031</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1410.044932795071</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1182.055381897053</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>961.2628027535234</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.50758019583179</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>180.5487903941875</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>107.0485416471199</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>145.1398665102885</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>135.8503182118946</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.131767663158399</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6960474398168515</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53.4052788685286</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>46.23519869957</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>126.9182872993602</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.831980181936</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.98982571067619</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.11615722870167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>15.70159709961314</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>176.3785887617861</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778988.1490057524</v>
+        <v>778988.1490057522</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778988.1490057523</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778988.1490057522</v>
+        <v>778988.1490057521</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
@@ -26320,40 +26320,40 @@
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520054</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12996.8641468305</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.86414683039</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683034</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683042</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
+        <v>12996.8641468304</v>
+      </c>
+      <c r="N4" t="n">
         <v>12996.86414683044</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12996.86414683041</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872029.1693157409</v>
+        <v>-872029.169315741</v>
       </c>
       <c r="C6" t="n">
         <v>456715.5764118516</v>
@@ -26528,40 +26528,40 @@
         <v>456715.5764118516</v>
       </c>
       <c r="E6" t="n">
-        <v>206185.4239739121</v>
+        <v>206150.6860484765</v>
       </c>
       <c r="F6" t="n">
-        <v>531597.8857812673</v>
+        <v>531563.1478558318</v>
       </c>
       <c r="G6" t="n">
-        <v>531597.8857812673</v>
+        <v>531563.1478558317</v>
       </c>
       <c r="H6" t="n">
-        <v>531597.8857812678</v>
+        <v>531563.1478558321</v>
       </c>
       <c r="I6" t="n">
-        <v>531597.8857812673</v>
+        <v>531563.147855832</v>
       </c>
       <c r="J6" t="n">
-        <v>314066.6833839902</v>
+        <v>314031.9454585544</v>
       </c>
       <c r="K6" t="n">
-        <v>531597.8857812677</v>
+        <v>531563.1478558317</v>
       </c>
       <c r="L6" t="n">
-        <v>531597.8857812679</v>
+        <v>531563.147855832</v>
       </c>
       <c r="M6" t="n">
-        <v>446542.8578457557</v>
+        <v>446508.1199203202</v>
       </c>
       <c r="N6" t="n">
-        <v>531597.8857812677</v>
+        <v>531563.1478558321</v>
       </c>
       <c r="O6" t="n">
-        <v>531597.8857812679</v>
+        <v>531563.1478558317</v>
       </c>
       <c r="P6" t="n">
-        <v>531597.8857812677</v>
+        <v>531563.1478558317</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26796,19 +26796,19 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.276709502444</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>240.9947042380796</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>85.41454905009516</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>146.3441885157312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>256.7665117192704</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>332.624878506814</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>45.57345701452509</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.40486482103944</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>290.1909435705129</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>34.67211594094584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-4.252579213093974e-12</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937413</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>361.1081696176606</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32479,7 +32479,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159428</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32546,34 +32546,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>300.5543663814921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>232.153703594058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745949</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>669.4669885000068</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>397.6543049213403</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707458</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>407.3236446867654</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010493</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>222.5537898377864</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>161.9999866016179</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>90.01966967203964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>526.8707440555623</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066783</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>263.67989750701</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,25 +38093,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
